--- a/sprints/sprint3/Sprint Backlog & Burndown.xlsx
+++ b/sprints/sprint3/Sprint Backlog & Burndown.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan Corley\git\SE2-project-repos-sample\sprints\sprint1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f3a8c7ed36ef20a/Documents/GitHub/UWG-SE2-Spring22-Team1/sprints/sprint3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9C4265-351C-41A0-89E5-93A08D9C51A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="13_ncr:1_{9C9C4265-351C-41A0-89E5-93A08D9C51A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F16CC8D-D610-462D-8C9B-DC4BE9C366BC}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23895" yWindow="4170" windowWidth="28800" windowHeight="9585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>Related User Story</t>
   </si>
@@ -60,10 +64,49 @@
     <t>Estimate Totals</t>
   </si>
   <si>
-    <t>Code Things…</t>
-  </si>
-  <si>
-    <t>That User Story</t>
+    <t>Server-Sudoku Generation</t>
+  </si>
+  <si>
+    <t>Server-Sudoku Hints</t>
+  </si>
+  <si>
+    <t>Client-Sudoku Transmission</t>
+  </si>
+  <si>
+    <t>UI-Sudoku game</t>
+  </si>
+  <si>
+    <t>Client-Sudoku Verification</t>
+  </si>
+  <si>
+    <t>Server-Client Integration</t>
+  </si>
+  <si>
+    <t>Client-Sudoku Game</t>
+  </si>
+  <si>
+    <t>Client-Sudoku hints</t>
+  </si>
+  <si>
+    <t>General Project Clean-up</t>
+  </si>
+  <si>
+    <t>Server-Sudoku Implementation</t>
+  </si>
+  <si>
+    <t>UI-Clean-up</t>
+  </si>
+  <si>
+    <t>I can occupy my spare time and have a positive incentive to continue working on my habits</t>
+  </si>
+  <si>
+    <t>I can play a new sudoku puzzle if I don't want to continue my current</t>
+  </si>
+  <si>
+    <t>I can get hints when I get stuck in the puzzle and have an incentive to achieve more habits</t>
+  </si>
+  <si>
+    <t>All of them</t>
   </si>
 </sst>
 </file>
@@ -145,13 +188,13 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -266,16 +309,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1323,24 +1366,24 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.42578125" customWidth="1"/>
+    <col min="1" max="1" width="83" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
@@ -1351,132 +1394,230 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="7" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="1">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="D3" s="2">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="2"/>
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2.5</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1.5</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="2"/>
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2">
+        <v>6</v>
+      </c>
+      <c r="E11" s="2">
+        <v>6</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="2"/>
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
@@ -1603,19 +1744,19 @@
       </c>
       <c r="C27" s="3">
         <f>SUM(C3:C26)</f>
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="D27" s="3">
         <f t="shared" ref="D27:G27" si="0">SUM(D3:D26)</f>
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="E27" s="3">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="F27" s="3">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
         <f t="shared" si="0"/>
